--- a/chapter 2/Counting.xlsx
+++ b/chapter 2/Counting.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarstruck/Git/excel_vlookups/chapter 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{825B2D3A-CCF4-4DF7-80D5-EF5C47DD053D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F473F93-D44B-BA46-8177-39DC1B787759}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="9375" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="24700" windowHeight="13460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>n/a</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>Count all</t>
+  </si>
+  <si>
+    <t>Count blanks</t>
+  </si>
+  <si>
+    <t>count blanks</t>
   </si>
 </sst>
 </file>
@@ -464,19 +473,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -484,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -492,53 +502,71 @@
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>7.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>1.4500000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -546,17 +574,46 @@
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>8.0999999999999996E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <f>COUNTBLANK(E3:E8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="B11">
+        <f>COUNT(B2:B10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <f>COUNTA(B2:B10)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <f>COUNTBLANK(B2:B10)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
